--- a/config/tests/test-files/Payors/Payors.xlsx
+++ b/config/tests/test-files/Payors/Payors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1001965E-0A58-4126-9724-247AC4F2A6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192AC53-9797-4644-ACF3-766BE71C530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31110" yWindow="3000" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="3">
   <si>
     <t>resource_id</t>
   </si>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="J498" sqref="J498"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,1089 +830,381 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B57" s="1"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" ref="A68:A131" si="1">A67</f>
-        <v>50704127</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <f t="shared" si="1"/>
-        <v>50704127</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <f t="shared" ref="A132:A195" si="2">A131</f>
-        <v>50704127</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <f t="shared" si="2"/>
-        <v>50704127</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">

--- a/config/tests/test-files/Payors/Payors.xlsx
+++ b/config/tests/test-files/Payors/Payors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192AC53-9797-4644-ACF3-766BE71C530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF6049-08B6-4F16-9697-6A09CDF5A10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="3000" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>resource_id</t>
   </si>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,477 +398,189 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2</f>
-        <v>50704127</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3</f>
-        <v>50704127</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>50704127</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">

--- a/config/tests/test-files/Payors/Payors.xlsx
+++ b/config/tests/test-files/Payors/Payors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BF6049-08B6-4F16-9697-6A09CDF5A10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04A375-B065-4184-A0E3-DB7781D2023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1695" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>resource_id</t>
   </si>
   <si>
     <t>global_payor</t>
   </si>
-  <si>
-    <t>Primary: Catalight &gt; BHPN - Kadiant (Labeled: insurance TEST)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +61,12 @@
       <color rgb="FF0B1317"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,7 +376,7 @@
   <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B50"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,8 +397,8 @@
       <c r="A2">
         <v>50704127</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>1359357</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/tests/test-files/Payors/Payors.xlsx
+++ b/config/tests/test-files/Payors/Payors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C04A375-B065-4184-A0E3-DB7781D2023F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11054E85-1925-46F5-A5BC-95E73470FD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="1695" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>resource_id</t>
   </si>
   <si>
     <t>global_payor</t>
+  </si>
+  <si>
+    <t>Primary: Adventist Health &gt; CA – Adventist Health-SCA</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
   <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,8 +400,8 @@
       <c r="A2">
         <v>50704127</v>
       </c>
-      <c r="B2" s="2">
-        <v>1359357</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/config/tests/test-files/Payors/Payors.xlsx
+++ b/config/tests/test-files/Payors/Payors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MosheStern\work\my-repos\cr-bot\config\tests\test-files\Payors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11054E85-1925-46F5-A5BC-95E73470FD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595FD716-9565-424C-8F7C-B5E60AD10A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="1695" windowWidth="21600" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>resource_id</t>
   </si>
   <si>
     <t>global_payor</t>
-  </si>
-  <si>
-    <t>Primary: Adventist Health &gt; CA – Adventist Health-SCA</t>
   </si>
 </sst>
 </file>
@@ -67,7 +64,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FFECDDF7"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -379,7 +376,7 @@
   <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,8 +397,8 @@
       <c r="A2">
         <v>50704127</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>3135243</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
